--- a/Project4309_A. M. Paterson(2014).xlsx
+++ b/Project4309_A. M. Paterson(2014).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B161E3E4-4E60-0146-8C73-F1E6D4A4D5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A468E2A2-174B-4F33-B605-700A5E65A574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
+    <workbookView xWindow="16245" yWindow="6825" windowWidth="15870" windowHeight="18585" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Project4309" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="76">
   <si>
     <t>Charlabels</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NT?;0=0-;1=11;2=12</t>
   </si>
 </sst>
 </file>
@@ -710,16 +713,16 @@
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -741,7 +744,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -752,7 +755,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -763,7 +766,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -774,7 +777,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -785,7 +788,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -796,7 +799,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -807,7 +810,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -818,7 +821,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -829,7 +832,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -840,7 +843,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -851,7 +854,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -862,7 +865,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -873,7 +876,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -884,7 +887,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -895,7 +898,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -906,7 +909,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -917,7 +920,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -928,7 +931,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -939,7 +942,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -950,7 +953,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -961,7 +964,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -972,7 +975,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -983,7 +986,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -994,7 +997,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1159,18 +1162,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1324,7 +1327,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1379,7 +1382,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
